--- a/docs/PLC与Server数据交换示例.xlsx
+++ b/docs/PLC与Server数据交换示例.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="167">
   <si>
     <t>identifier</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -433,6 +433,173 @@
   </si>
   <si>
     <t>\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流量计1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流量计2</t>
+  </si>
+  <si>
+    <t>流量计3</t>
+  </si>
+  <si>
+    <t>流量计4</t>
+  </si>
+  <si>
+    <t>流量计5</t>
+  </si>
+  <si>
+    <t>流量计6</t>
+  </si>
+  <si>
+    <t>流量计7</t>
+  </si>
+  <si>
+    <t>流量计8</t>
+  </si>
+  <si>
+    <t>流量计9</t>
+  </si>
+  <si>
+    <t>流量计10</t>
+  </si>
+  <si>
+    <t>流量计11</t>
+  </si>
+  <si>
+    <t>流量计12</t>
+  </si>
+  <si>
+    <t>流量计13</t>
+  </si>
+  <si>
+    <t>压力计1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力计2</t>
+  </si>
+  <si>
+    <t>压力计3</t>
+  </si>
+  <si>
+    <t>压力计4</t>
+  </si>
+  <si>
+    <t>压力计5</t>
+  </si>
+  <si>
+    <t>压力计6</t>
+  </si>
+  <si>
+    <t>液位计1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>液位计2</t>
+  </si>
+  <si>
+    <t>液位计3</t>
+  </si>
+  <si>
+    <t>液位计4</t>
+  </si>
+  <si>
+    <t>温度计1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度计2</t>
+  </si>
+  <si>
+    <t>温度计3</t>
+  </si>
+  <si>
+    <t>开关阀1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关阀2</t>
+  </si>
+  <si>
+    <t>开关阀3</t>
+  </si>
+  <si>
+    <t>开关阀4</t>
+  </si>
+  <si>
+    <t>开关阀5</t>
+  </si>
+  <si>
+    <t>开关阀6</t>
+  </si>
+  <si>
+    <t>开关阀7</t>
+  </si>
+  <si>
+    <t>开关阀8</t>
+  </si>
+  <si>
+    <t>开关阀9</t>
+  </si>
+  <si>
+    <t>调节阀1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调节阀2</t>
+  </si>
+  <si>
+    <t>调节阀3</t>
+  </si>
+  <si>
+    <t>调节阀4</t>
+  </si>
+  <si>
+    <t>调节阀5</t>
+  </si>
+  <si>
+    <t>调节阀6</t>
+  </si>
+  <si>
+    <t>调节阀7</t>
+  </si>
+  <si>
+    <t>调节阀8</t>
+  </si>
+  <si>
+    <t>电机1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机2</t>
+  </si>
+  <si>
+    <t>电机3</t>
+  </si>
+  <si>
+    <t>电机4</t>
+  </si>
+  <si>
+    <t>电机5</t>
+  </si>
+  <si>
+    <t>设备控制命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关阀1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -760,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E51" sqref="A30:E51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F60" sqref="A1:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -811,6 +978,9 @@
       <c r="E3" t="s">
         <v>96</v>
       </c>
+      <c r="F3" t="s">
+        <v>115</v>
+      </c>
       <c r="G3" t="s">
         <v>97</v>
       </c>
@@ -831,6 +1001,9 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
+      <c r="F4" t="s">
+        <v>116</v>
+      </c>
       <c r="G4" t="s">
         <v>99</v>
       </c>
@@ -851,6 +1024,9 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
+      <c r="F5" t="s">
+        <v>117</v>
+      </c>
       <c r="G5" t="s">
         <v>98</v>
       </c>
@@ -871,6 +1047,9 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
+      <c r="F6" t="s">
+        <v>118</v>
+      </c>
       <c r="G6" t="s">
         <v>101</v>
       </c>
@@ -891,6 +1070,9 @@
       <c r="E7" t="s">
         <v>8</v>
       </c>
+      <c r="F7" t="s">
+        <v>119</v>
+      </c>
       <c r="G7" t="s">
         <v>100</v>
       </c>
@@ -911,6 +1093,9 @@
       <c r="E8" t="s">
         <v>8</v>
       </c>
+      <c r="F8" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -928,6 +1113,9 @@
       <c r="E9" t="s">
         <v>8</v>
       </c>
+      <c r="F9" t="s">
+        <v>121</v>
+      </c>
       <c r="G9" t="s">
         <v>102</v>
       </c>
@@ -948,6 +1136,9 @@
       <c r="E10" t="s">
         <v>8</v>
       </c>
+      <c r="F10" t="s">
+        <v>122</v>
+      </c>
       <c r="G10" t="s">
         <v>103</v>
       </c>
@@ -968,6 +1159,9 @@
       <c r="E11" t="s">
         <v>8</v>
       </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
       <c r="G11" t="s">
         <v>104</v>
       </c>
@@ -988,6 +1182,9 @@
       <c r="E12" t="s">
         <v>8</v>
       </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
       <c r="G12" t="s">
         <v>105</v>
       </c>
@@ -1008,6 +1205,9 @@
       <c r="E13" t="s">
         <v>8</v>
       </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1025,6 +1225,9 @@
       <c r="E14" t="s">
         <v>8</v>
       </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
       <c r="G14" t="s">
         <v>106</v>
       </c>
@@ -1045,6 +1248,9 @@
       <c r="E15" t="s">
         <v>8</v>
       </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
       <c r="G15" t="s">
         <v>108</v>
       </c>
@@ -1065,6 +1271,9 @@
       <c r="E16" t="s">
         <v>8</v>
       </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
       <c r="G16" t="s">
         <v>107</v>
       </c>
@@ -1085,6 +1294,9 @@
       <c r="E17" t="s">
         <v>8</v>
       </c>
+      <c r="F17" t="s">
+        <v>129</v>
+      </c>
       <c r="G17" t="s">
         <v>109</v>
       </c>
@@ -1105,6 +1317,9 @@
       <c r="E18" t="s">
         <v>8</v>
       </c>
+      <c r="F18" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1122,6 +1337,9 @@
       <c r="E19" t="s">
         <v>8</v>
       </c>
+      <c r="F19" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1139,6 +1357,9 @@
       <c r="E20" t="s">
         <v>8</v>
       </c>
+      <c r="F20" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -1156,6 +1377,9 @@
       <c r="E21" t="s">
         <v>8</v>
       </c>
+      <c r="F21" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -1173,6 +1397,9 @@
       <c r="E22" t="s">
         <v>8</v>
       </c>
+      <c r="F22" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -1190,6 +1417,9 @@
       <c r="E23" t="s">
         <v>8</v>
       </c>
+      <c r="F23" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -1207,6 +1437,9 @@
       <c r="E24" t="s">
         <v>8</v>
       </c>
+      <c r="F24" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -1224,6 +1457,9 @@
       <c r="E25" t="s">
         <v>8</v>
       </c>
+      <c r="F25" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -1241,6 +1477,9 @@
       <c r="E26" t="s">
         <v>8</v>
       </c>
+      <c r="F26" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -1258,6 +1497,9 @@
       <c r="E27" t="s">
         <v>8</v>
       </c>
+      <c r="F27" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -1275,6 +1517,9 @@
       <c r="E28" t="s">
         <v>8</v>
       </c>
+      <c r="F28" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -1292,6 +1537,9 @@
       <c r="E29" t="s">
         <v>8</v>
       </c>
+      <c r="F29" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -1309,6 +1557,9 @@
       <c r="E30" t="s">
         <v>8</v>
       </c>
+      <c r="F30" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -1326,6 +1577,9 @@
       <c r="E31" t="s">
         <v>8</v>
       </c>
+      <c r="F31" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -1343,8 +1597,11 @@
       <c r="E32" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -1360,8 +1617,11 @@
       <c r="E33" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -1377,8 +1637,11 @@
       <c r="E34" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -1394,8 +1657,11 @@
       <c r="E35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -1411,8 +1677,11 @@
       <c r="E36" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -1428,8 +1697,11 @@
       <c r="E37" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -1445,8 +1717,11 @@
       <c r="E38" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -1462,8 +1737,11 @@
       <c r="E39" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -1479,8 +1757,11 @@
       <c r="E40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -1496,8 +1777,11 @@
       <c r="E41" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -1513,8 +1797,11 @@
       <c r="E42" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -1530,8 +1817,11 @@
       <c r="E43" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -1547,8 +1837,11 @@
       <c r="E44" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -1564,8 +1857,11 @@
       <c r="E45" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -1581,8 +1877,11 @@
       <c r="E46" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>63</v>
       </c>
@@ -1598,8 +1897,11 @@
       <c r="E47" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>64</v>
       </c>
@@ -1614,6 +1916,9 @@
       </c>
       <c r="E48" t="s">
         <v>8</v>
+      </c>
+      <c r="F48" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -1632,6 +1937,9 @@
       <c r="E49" t="s">
         <v>8</v>
       </c>
+      <c r="F49" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
@@ -1649,6 +1957,9 @@
       <c r="E50" t="s">
         <v>8</v>
       </c>
+      <c r="F50" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
@@ -1665,6 +1976,9 @@
       </c>
       <c r="E51" t="s">
         <v>8</v>
+      </c>
+      <c r="F51" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -1864,11 +2178,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1911,6 +2228,9 @@
       <c r="E3" t="s">
         <v>114</v>
       </c>
+      <c r="F3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1928,6 +2248,9 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
+      <c r="F4" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1945,6 +2268,9 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
+      <c r="F5" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1962,6 +2288,9 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
+      <c r="F6" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1979,6 +2308,9 @@
       <c r="E7" t="s">
         <v>8</v>
       </c>
+      <c r="F7" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1996,6 +2328,9 @@
       <c r="E8" t="s">
         <v>8</v>
       </c>
+      <c r="F8" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -2013,6 +2348,9 @@
       <c r="E9" t="s">
         <v>8</v>
       </c>
+      <c r="F9" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -2030,6 +2368,9 @@
       <c r="E10" t="s">
         <v>8</v>
       </c>
+      <c r="F10" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -2046,6 +2387,9 @@
       </c>
       <c r="E11" t="s">
         <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -2064,6 +2408,9 @@
       <c r="E12" t="s">
         <v>8</v>
       </c>
+      <c r="F12" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -2081,6 +2428,9 @@
       <c r="E13" t="s">
         <v>8</v>
       </c>
+      <c r="F13" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -2098,6 +2448,9 @@
       <c r="E14" t="s">
         <v>8</v>
       </c>
+      <c r="F14" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -2115,6 +2468,9 @@
       <c r="E15" t="s">
         <v>8</v>
       </c>
+      <c r="F15" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -2132,8 +2488,11 @@
       <c r="E16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -2149,8 +2508,11 @@
       <c r="E17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -2166,8 +2528,11 @@
       <c r="E18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -2183,8 +2548,11 @@
       <c r="E19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -2200,8 +2568,11 @@
       <c r="E20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -2217,8 +2588,11 @@
       <c r="E21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -2234,8 +2608,11 @@
       <c r="E22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -2251,8 +2628,11 @@
       <c r="E23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -2268,8 +2648,11 @@
       <c r="E24" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -2284,6 +2667,9 @@
       </c>
       <c r="E25" t="s">
         <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
